--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_6_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_6_2.xlsx
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_1</t>
+          <t>model_6_2_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999873648521901</v>
+        <v>0.9999358974335204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991281875411088</v>
+        <v>0.9990404837358651</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999917289014134</v>
+        <v>0.9998786310932073</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999745514497581</v>
+        <v>0.9999592303267772</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999869893056363</v>
+        <v>0.9999386066122435</v>
       </c>
       <c r="G2" t="n">
-        <v>1.179435586165613e-05</v>
+        <v>5.983693203122497e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008137986622308374</v>
+        <v>0.0008956663146737464</v>
       </c>
       <c r="I2" t="n">
-        <v>7.363506634076475e-06</v>
+        <v>2.902257501596647e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>8.657693999829127e-06</v>
+        <v>2.749321659240529e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>8.010600316952801e-06</v>
+        <v>2.825789580418588e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000308703051931822</v>
+        <v>0.0006651582725534738</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00343429117310343</v>
+        <v>0.007735433538672862</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000303243547438</v>
+        <v>1.00153846159551</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003580496058305227</v>
+        <v>0.008064746958969082</v>
       </c>
       <c r="P2" t="n">
-        <v>72.69577891546287</v>
+        <v>69.4477749902881</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.1676745371679</v>
+        <v>99.91967061199311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_0</t>
+          <t>model_6_2_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999848129764261</v>
+        <v>0.9999455826936967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991264366683835</v>
+        <v>0.9990395373326243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999883333821101</v>
+        <v>0.9998721307584204</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999759274607376</v>
+        <v>0.999959717264319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999849145696721</v>
+        <v>0.9999372747625584</v>
       </c>
       <c r="G3" t="n">
-        <v>1.417641987294176e-05</v>
+        <v>5.079616679039698e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008154330250653792</v>
+        <v>0.0008965497405567299</v>
       </c>
       <c r="I3" t="n">
-        <v>1.038643383708134e-05</v>
+        <v>3.057698016773113e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>8.189569808594349e-06</v>
+        <v>2.716484802225318e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>9.288001822837845e-06</v>
+        <v>2.887091409499216e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003330289692128525</v>
+        <v>0.000620471417131939</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003765158678321773</v>
+        <v>0.007127142961271156</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000364488565775</v>
+        <v>1.001306015351279</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003925449278210872</v>
+        <v>0.007430560192352299</v>
       </c>
       <c r="P3" t="n">
-        <v>72.32786109192716</v>
+        <v>69.7753793262176</v>
       </c>
       <c r="Q3" t="n">
-        <v>102.7997567136322</v>
+        <v>100.2472749479226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_2</t>
+          <t>model_6_2_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999894320564477</v>
+        <v>0.9999240967253828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991243082739876</v>
+        <v>0.9990393772565532</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999936848761556</v>
+        <v>0.9998837762280528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999746716011563</v>
+        <v>0.9999579750826241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999884366333235</v>
+        <v>0.9999390236020177</v>
       </c>
       <c r="G4" t="n">
-        <v>9.864711426950442e-06</v>
+        <v>7.085237508643068e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008174197878083329</v>
+        <v>0.0008966991645424986</v>
       </c>
       <c r="I4" t="n">
-        <v>5.622162018360443e-06</v>
+        <v>2.779223467618346e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>8.616818035251153e-06</v>
+        <v>2.83396962586104e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>7.119490026805799e-06</v>
+        <v>2.806596546739693e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002864750319915317</v>
+        <v>0.0007140543509270821</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003140813816027693</v>
+        <v>0.008417385287987635</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000253630645254</v>
+        <v>1.001821678590812</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003274524762556897</v>
+        <v>0.008775730806086917</v>
       </c>
       <c r="P4" t="n">
-        <v>73.05309334225467</v>
+        <v>69.1098241392904</v>
       </c>
       <c r="Q4" t="n">
-        <v>103.5249889639597</v>
+        <v>99.58171976099541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_3</t>
+          <t>model_6_2_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999911432323331</v>
+        <v>0.9999534478924865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991183399063532</v>
+        <v>0.9990369853831687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999947491558612</v>
+        <v>0.9998645128322817</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999763506788178</v>
+        <v>0.9999596222376316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999896699777588</v>
+        <v>0.9999352262813109</v>
       </c>
       <c r="G5" t="n">
-        <v>8.267403849900557e-06</v>
+        <v>4.345434896242799e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008229909970138802</v>
+        <v>0.000898931873355867</v>
       </c>
       <c r="I5" t="n">
-        <v>4.674666278752937e-06</v>
+        <v>3.239863151705478e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>8.045589401092934e-06</v>
+        <v>2.722892970584198e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>6.360127839922935e-06</v>
+        <v>2.981378061144838e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002678742987878997</v>
+        <v>0.0005798536118146496</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002875309348557222</v>
+        <v>0.006591991274450232</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000212562424006</v>
+        <v>1.001117250580323</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002997717220236193</v>
+        <v>0.006872625990306698</v>
       </c>
       <c r="P5" t="n">
-        <v>73.40638004409229</v>
+        <v>70.08759924013309</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.8782756657973</v>
+        <v>100.5594948618381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_4</t>
+          <t>model_6_2_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999924797447116</v>
+        <v>0.9999098795236175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991113328044926</v>
+        <v>0.9990359886792497</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999952271647667</v>
+        <v>0.9998880842628692</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999789678272558</v>
+        <v>0.9999558740514944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999907386268309</v>
+        <v>0.9999386035573846</v>
       </c>
       <c r="G6" t="n">
-        <v>7.019828210611321e-06</v>
+        <v>8.412350887134786e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008295318190246118</v>
+        <v>0.0008998622527139453</v>
       </c>
       <c r="I6" t="n">
-        <v>4.249109539210974e-06</v>
+        <v>2.676206750293179e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>7.15522550560112e-06</v>
+        <v>2.975653626119272e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>5.702167522406046e-06</v>
+        <v>2.825930188206226e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002526738070027077</v>
+        <v>0.0007668015407134957</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002649495840836766</v>
+        <v>0.009171886876283846</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000180486126921</v>
+        <v>1.002162891433179</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002762290363993674</v>
+        <v>0.009562353089030501</v>
       </c>
       <c r="P6" t="n">
-        <v>73.73354362329775</v>
+        <v>68.76644899062266</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.2054392450028</v>
+        <v>99.23834461232768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_5</t>
+          <t>model_6_2_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999935269365279</v>
+        <v>0.9999597837197401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991050257521559</v>
+        <v>0.9990332567508532</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999955278621606</v>
+        <v>0.9998560667615396</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999803606938483</v>
+        <v>0.9999590767129765</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99999134084223</v>
+        <v>0.9999326326628137</v>
       </c>
       <c r="G7" t="n">
-        <v>6.042320616566107e-06</v>
+        <v>3.75401323319171e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000835419175533353</v>
+        <v>0.0009024123879543045</v>
       </c>
       <c r="I7" t="n">
-        <v>3.981407826845595e-06</v>
+        <v>3.441831454938869e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>6.681366970390817e-06</v>
+        <v>2.759680676524143e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>5.331387398618207e-06</v>
+        <v>3.100756065731507e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002388175202953184</v>
+        <v>0.0005432530187782339</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002458113222893955</v>
+        <v>0.006127000271904441</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000155353523331</v>
+        <v>1.000965190726236</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002562760191788403</v>
+        <v>0.006387839358118462</v>
       </c>
       <c r="P7" t="n">
-        <v>74.03344482353162</v>
+        <v>70.3802000034422</v>
       </c>
       <c r="Q7" t="n">
-        <v>104.5053404452366</v>
+        <v>100.8520956251472</v>
       </c>
     </row>
     <row r="8">
@@ -852,877 +852,877 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999944212002383</v>
+        <v>0.9998929024288877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990979001838267</v>
+        <v>0.9990305062287601</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999955815166799</v>
+        <v>0.9998927763759013</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999818308089025</v>
+        <v>0.9999528732141493</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999917857922845</v>
+        <v>0.9999376241254045</v>
       </c>
       <c r="G8" t="n">
-        <v>5.207564696587497e-06</v>
+        <v>9.997088159321224e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008420705807923419</v>
+        <v>0.0009049798795942529</v>
       </c>
       <c r="I8" t="n">
-        <v>3.93364084583362e-06</v>
+        <v>2.564005688211591e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>6.181228213484587e-06</v>
+        <v>3.178016472239808e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>5.057434529659104e-06</v>
+        <v>2.871011080225699e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002256148148371551</v>
+        <v>0.0008228225306126468</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002282008916851005</v>
+        <v>0.009998543973659978</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000133891194281</v>
+        <v>1.002570341706694</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002379158760851036</v>
+        <v>0.01042420269045803</v>
       </c>
       <c r="P8" t="n">
-        <v>74.33079648031172</v>
+        <v>68.42126319689274</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.8026921020167</v>
+        <v>98.89315881859775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_7</t>
+          <t>model_6_2_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999951506600828</v>
+        <v>0.9999648010533621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999090995396985</v>
+        <v>0.9990282932788168</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999955322611134</v>
+        <v>0.999846102297801</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999826063074446</v>
+        <v>0.9999581308047787</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999919644337908</v>
+        <v>0.9999293513163984</v>
       </c>
       <c r="G9" t="n">
-        <v>4.526645951269264e-06</v>
+        <v>3.285667163132548e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008485158962239325</v>
+        <v>0.0009070455712290022</v>
       </c>
       <c r="I9" t="n">
-        <v>3.977491573472707e-06</v>
+        <v>3.680108624924565e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>5.917400647218381e-06</v>
+        <v>2.82346843076288e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>4.947446110345545e-06</v>
+        <v>3.251788527843722e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002124832057794946</v>
+        <v>0.0005132387808815013</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002127591584696006</v>
+        <v>0.005732073938054662</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000116384158012</v>
+        <v>1.000844774719311</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002218167563178255</v>
+        <v>0.005976100192626484</v>
       </c>
       <c r="P9" t="n">
-        <v>74.61105860163023</v>
+        <v>70.6467114797091</v>
       </c>
       <c r="Q9" t="n">
-        <v>105.0829542233352</v>
+        <v>101.1186071014141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_8</t>
+          <t>model_6_2_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999957430283548</v>
+        <v>0.9999687674145571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990845280551547</v>
+        <v>0.9990228225644825</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999954145032359</v>
+        <v>0.9998357840069262</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999833232779722</v>
+        <v>0.9999569923763997</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999920773794867</v>
+        <v>0.9999258370265718</v>
       </c>
       <c r="G10" t="n">
-        <v>3.973696171308e-06</v>
+        <v>2.9154247558859e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008545528759390563</v>
+        <v>0.0009121522429235214</v>
       </c>
       <c r="I10" t="n">
-        <v>4.082327817711787e-06</v>
+        <v>3.92684675486653e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>5.673484535044654e-06</v>
+        <v>2.900238871934607e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>4.87790617637822e-06</v>
+        <v>3.413542813400569e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002006452082880862</v>
+        <v>0.0004890431500649556</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001993413196331358</v>
+        <v>0.005399467340290059</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000102167319485</v>
+        <v>1.00074958205063</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002078276923033368</v>
+        <v>0.005629333843404468</v>
       </c>
       <c r="P10" t="n">
-        <v>74.87162774176446</v>
+        <v>70.88581988385698</v>
       </c>
       <c r="Q10" t="n">
-        <v>105.3435233634695</v>
+        <v>101.357715505562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_9</t>
+          <t>model_6_2_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999962406471312</v>
+        <v>0.9998730732055664</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999078660411128</v>
+        <v>0.9990215122051975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999953342651995</v>
+        <v>0.9998962677136274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999840309741901</v>
+        <v>0.9999482838995881</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999992214889038</v>
+        <v>0.9999351691276994</v>
       </c>
       <c r="G11" t="n">
-        <v>3.509190886530882e-06</v>
+        <v>0.0001184805911614587</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008600300640781645</v>
+        <v>0.000913375405797919</v>
       </c>
       <c r="I11" t="n">
-        <v>4.153761292646685e-06</v>
+        <v>2.480518398313943e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>5.432723578510749e-06</v>
+        <v>3.487499009789411e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.793242435578717e-06</v>
+        <v>2.984008704051677e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001891028176851688</v>
+        <v>0.0008813148404280121</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001873283450663802</v>
+        <v>0.01088487901455311</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000090224468851</v>
+        <v>1.003046243066406</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001953033005389889</v>
+        <v>0.01134827084900846</v>
       </c>
       <c r="P11" t="n">
-        <v>75.12025012743483</v>
+        <v>68.08152279694153</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.5921457491398</v>
+        <v>98.55341841864654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_10</t>
+          <t>model_6_2_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999966523690288</v>
+        <v>0.9999718534158648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990724813034852</v>
+        <v>0.9990167961110974</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999950775787606</v>
+        <v>0.9998247604448447</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999985088370747</v>
+        <v>0.9999556964759008</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999923214438735</v>
+        <v>0.9999220241751632</v>
       </c>
       <c r="G12" t="n">
-        <v>3.124866567643977e-06</v>
+        <v>2.62736007979146e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008657979898311511</v>
+        <v>0.000917777672627745</v>
       </c>
       <c r="I12" t="n">
-        <v>4.382281395018574e-06</v>
+        <v>4.19044981920002e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>5.07299323084923e-06</v>
+        <v>2.987628517920482e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>4.727637312933902e-06</v>
+        <v>3.589039168560251e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001789863986317593</v>
+        <v>0.0004673581630345415</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001767729212193988</v>
+        <v>0.00512577806756346</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000080343143309</v>
+        <v>1.000675518019245</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001842985104461019</v>
+        <v>0.005343993051722999</v>
       </c>
       <c r="P12" t="n">
-        <v>75.35223794808287</v>
+        <v>71.09389178967879</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.8241335697879</v>
+        <v>101.5657874113838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_11</t>
+          <t>model_6_2_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999969776799899</v>
+        <v>0.9999742381521975</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990671801768879</v>
+        <v>0.9990105245922206</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999948795294952</v>
+        <v>0.9998135210959566</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999857449131271</v>
+        <v>0.9999543494684545</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999923596455169</v>
+        <v>0.9999181178313011</v>
       </c>
       <c r="G13" t="n">
-        <v>2.821203064961099e-06</v>
+        <v>2.404755410911621e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008707463588172105</v>
+        <v>0.0009236318602114015</v>
       </c>
       <c r="I13" t="n">
-        <v>4.558598611420542e-06</v>
+        <v>4.459212927359194e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>4.849635005273159e-06</v>
+        <v>3.078464584399486e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>4.70411680834685e-06</v>
+        <v>3.76883875587934e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001704028410459532</v>
+        <v>0.0004478042584807378</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001679643731557707</v>
+        <v>0.004903830554690508</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000072535680244</v>
+        <v>1.000618284347259</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001751149642551969</v>
+        <v>0.005112596773732356</v>
       </c>
       <c r="P13" t="n">
-        <v>75.55669429041927</v>
+        <v>71.27095453365794</v>
       </c>
       <c r="Q13" t="n">
-        <v>106.0285899121243</v>
+        <v>101.742850155363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_12</t>
+          <t>model_6_2_4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999972342679152</v>
+        <v>0.9998501007460722</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990623727703716</v>
+        <v>0.999009386373612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999946799658616</v>
+        <v>0.9999010708789468</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999862173978019</v>
+        <v>0.9999420326835133</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999923459014053</v>
+        <v>0.9999318374627169</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58168949952048e-06</v>
+        <v>0.0001399243737248646</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008752338617794512</v>
+        <v>0.0009246943373205322</v>
       </c>
       <c r="I14" t="n">
-        <v>4.73626402369041e-06</v>
+        <v>2.365661776894569e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>4.688893914131161e-06</v>
+        <v>3.909052640034102e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.712578968910786e-06</v>
+        <v>3.137357208464336e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001629109514837145</v>
+        <v>0.0009430825993384909</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001606763672579288</v>
+        <v>0.01182896334109057</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000066377570035</v>
+        <v>1.003597582094268</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001675166928580319</v>
+        <v>0.01233254679985059</v>
       </c>
       <c r="P14" t="n">
-        <v>75.7341330571453</v>
+        <v>67.74881693797687</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.2060286788503</v>
+        <v>98.22071255968189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_13</t>
+          <t>model_6_2_17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999974410785083</v>
+        <v>0.9999760750070049</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990578718647067</v>
+        <v>0.9990043433459462</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999944486689989</v>
+        <v>0.9998026112200236</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999867231272149</v>
+        <v>0.9999530386109141</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999992318399525</v>
+        <v>0.9999143235546989</v>
       </c>
       <c r="G15" t="n">
-        <v>2.388640888843061e-06</v>
+        <v>2.233293077514211e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008794352596506697</v>
+        <v>0.0009294017822832192</v>
       </c>
       <c r="I15" t="n">
-        <v>4.942180561236753e-06</v>
+        <v>4.720097449638616e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>4.51684283603734e-06</v>
+        <v>3.166862865358952e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>4.729511698637047e-06</v>
+        <v>3.943480157498784e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001562059038973735</v>
+        <v>0.0004300867578918927</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001545522852902234</v>
+        <v>0.004725773034662383</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000061414115801</v>
+        <v>1.000574199831882</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00161131896042364</v>
+        <v>0.004926958976446755</v>
       </c>
       <c r="P15" t="n">
-        <v>75.88957203905719</v>
+        <v>71.41889650479501</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.3614676607622</v>
+        <v>101.8907921265</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_14</t>
+          <t>model_6_2_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999976061779944</v>
+        <v>0.9999774712006927</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990538270988144</v>
+        <v>0.998998247143201</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999942492219021</v>
+        <v>0.999791931099123</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999870842086276</v>
+        <v>0.9999517997030862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999922739615175</v>
+        <v>0.9999106416674706</v>
       </c>
       <c r="G16" t="n">
-        <v>2.234527765583553e-06</v>
+        <v>2.102964525333028e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008832108710664724</v>
+        <v>0.0009350923199535437</v>
       </c>
       <c r="I16" t="n">
-        <v>5.119742224319415e-06</v>
+        <v>4.975487910183498e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>4.394001560212069e-06</v>
+        <v>3.25040918436985e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.756871892265741e-06</v>
+        <v>4.112948547276674e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001500191535034235</v>
+        <v>0.0004139891425229133</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001494833691613737</v>
+        <v>0.00458580911653879</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000057451728135</v>
+        <v>1.000540691183375</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001558471856598062</v>
+        <v>0.004781036504563388</v>
       </c>
       <c r="P16" t="n">
-        <v>76.02296128558076</v>
+        <v>71.539154873985</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.4948569072858</v>
+        <v>102.01105049569</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_15</t>
+          <t>model_6_2_3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999977405762194</v>
+        <v>0.9998244970650912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990500844537999</v>
+        <v>0.9989953256877195</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999940530872874</v>
+        <v>0.9999096503230539</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999874620495725</v>
+        <v>0.9999334487235325</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999922365486436</v>
+        <v>0.9999277778793053</v>
       </c>
       <c r="G17" t="n">
-        <v>2.109072921948554e-06</v>
+        <v>0.0001638242860488254</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008867044659042881</v>
+        <v>0.0009378193704083348</v>
       </c>
       <c r="I17" t="n">
-        <v>5.29435488567082e-06</v>
+        <v>2.160504157226688e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>4.265458627517566e-06</v>
+        <v>4.487915928154718e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>4.779906756594194e-06</v>
+        <v>3.324210042690703e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001444014994296822</v>
+        <v>0.001003078380137583</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001452264756147636</v>
+        <v>0.01279938615906346</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000054226170735</v>
+        <v>1.00421207043781</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001514090673419325</v>
+        <v>0.01334428252623676</v>
       </c>
       <c r="P17" t="n">
-        <v>76.13852416102642</v>
+        <v>67.43343226211869</v>
       </c>
       <c r="Q17" t="n">
-        <v>106.6104197827314</v>
+        <v>97.9053278838237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_16</t>
+          <t>model_6_2_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999978424016345</v>
+        <v>0.9999785334211542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990467065493823</v>
+        <v>0.9989924012373822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999938527937335</v>
+        <v>0.9997818538035051</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999877435189416</v>
+        <v>0.9999506790020031</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999921695036937</v>
+        <v>0.9999072029659419</v>
       </c>
       <c r="G18" t="n">
-        <v>2.014023366610038e-06</v>
+        <v>2.003810907871121e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008898575914052639</v>
+        <v>0.0009405492164296727</v>
       </c>
       <c r="I18" t="n">
-        <v>5.472670123615986e-06</v>
+        <v>5.216463194343538e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>4.169701672972934e-06</v>
+        <v>3.325984177194482e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>4.82118589829446e-06</v>
+        <v>4.27122368576901e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000139422584553925</v>
+        <v>0.0003994243560705023</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001419162910525088</v>
+        <v>0.004476394651805314</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000051782360773</v>
+        <v>1.0005151978923</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001479579613698357</v>
+        <v>0.004666964039547041</v>
       </c>
       <c r="P18" t="n">
-        <v>76.23075232328964</v>
+        <v>71.63574928709858</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.7026479449947</v>
+        <v>102.1076449088036</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_17</t>
+          <t>model_6_2_20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999979270419709</v>
+        <v>0.9999793124478137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990436118471308</v>
+        <v>0.9989866954245441</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999936748139373</v>
+        <v>0.9997719934859201</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999880353823597</v>
+        <v>0.9999496414498429</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999992121462803</v>
+        <v>0.9999038815388077</v>
       </c>
       <c r="G19" t="n">
-        <v>1.935015327819972e-06</v>
+        <v>1.931092188731217e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000892746360115368</v>
+        <v>0.0009458753422578825</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631120104241128e-06</v>
+        <v>5.452249949252937e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>4.070408623287742e-06</v>
+        <v>3.395951984172495e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>4.850764363764434e-06</v>
+        <v>4.424100966712716e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001348218855798008</v>
+        <v>0.0003861978631707819</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001391048283784561</v>
+        <v>0.004394419402755291</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000049750992699</v>
+        <v>1.000496501252472</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001450268089092186</v>
+        <v>0.0045814989344328</v>
       </c>
       <c r="P19" t="n">
-        <v>76.31079062031982</v>
+        <v>71.70967944243591</v>
       </c>
       <c r="Q19" t="n">
-        <v>106.7826862420248</v>
+        <v>102.1815750641409</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_18</t>
+          <t>model_6_2_1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999979916483871</v>
+        <v>0.9997729954778672</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990407705997416</v>
+        <v>0.9989831500826981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999934918007568</v>
+        <v>0.9999535513171715</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999883033897597</v>
+        <v>0.9999220252229049</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999992063192004</v>
+        <v>0.9999308134718844</v>
       </c>
       <c r="G20" t="n">
-        <v>1.874708074157787e-06</v>
+        <v>0.0002118987570640784</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008953985398368574</v>
+        <v>0.0009491847632485857</v>
       </c>
       <c r="I20" t="n">
-        <v>5.794051153201372e-06</v>
+        <v>1.110713128600655e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>3.979231482066614e-06</v>
+        <v>5.258264945390151e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>4.886641317633993e-06</v>
+        <v>3.184489036995403e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001307459004851482</v>
+        <v>0.001052227767122411</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001369199793367567</v>
+        <v>0.01455674266668469</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00004820043871</v>
+        <v>1.005448108531186</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00142748946320553</v>
+        <v>0.01517645333861689</v>
       </c>
       <c r="P20" t="n">
-        <v>76.37411520889189</v>
+        <v>66.91880391675869</v>
       </c>
       <c r="Q20" t="n">
-        <v>106.8460108305969</v>
+        <v>97.39069953846371</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_19</t>
+          <t>model_6_2_2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999980420961045</v>
+        <v>0.9997964163050275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990382596297639</v>
+        <v>0.9989831489869072</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999933356272703</v>
+        <v>0.99992614049418</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999885024196284</v>
+        <v>0.9999227759093714</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999920052688949</v>
+        <v>0.9999242430241312</v>
       </c>
       <c r="G21" t="n">
-        <v>1.82761734437107e-06</v>
+        <v>0.0001900364429654755</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008977424200922074</v>
+        <v>0.0009491857861213071</v>
       </c>
       <c r="I21" t="n">
-        <v>5.933087641669519e-06</v>
+        <v>1.766179744836523e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>3.911520760471235e-06</v>
+        <v>5.207642058361056e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>4.922304201070376e-06</v>
+        <v>3.48691090159879e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001270261424310519</v>
+        <v>0.001056439954571765</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001351893984146342</v>
+        <v>0.01378537061400511</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000046989693491</v>
+        <v>1.004886008679341</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001409446909857794</v>
+        <v>0.01437224238069446</v>
       </c>
       <c r="P21" t="n">
-        <v>76.42499487411541</v>
+        <v>67.13658939822916</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.8968904958204</v>
+        <v>97.60848501993418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_20</t>
+          <t>model_6_2_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999980828795754</v>
+        <v>0.9999799391479509</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990359198768809</v>
+        <v>0.9989817847020915</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999931812107345</v>
+        <v>0.9997640122307813</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999887317226822</v>
+        <v>0.9999487977060227</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999919569798098</v>
+        <v>0.9999011902011636</v>
       </c>
       <c r="G22" t="n">
-        <v>1.78954776456165e-06</v>
+        <v>1.872592481815989e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008999264767052133</v>
+        <v>0.000950459286111522</v>
       </c>
       <c r="I22" t="n">
-        <v>6.070559970653142e-06</v>
+        <v>5.643103259304902e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>3.833510985709959e-06</v>
+        <v>3.452850236628708e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>4.952035478181551e-06</v>
+        <v>4.547976747966805e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001236709894371913</v>
+        <v>0.0003737026136559607</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001337739797031414</v>
+        <v>0.004327346163430872</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000046010890191</v>
+        <v>1.000481460449178</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001394690149694177</v>
+        <v>0.004511570248449595</v>
       </c>
       <c r="P22" t="n">
-        <v>76.46709523105629</v>
+        <v>71.77120328058554</v>
       </c>
       <c r="Q22" t="n">
-        <v>106.9389908527613</v>
+        <v>102.2430989022906</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_21</t>
+          <t>model_6_2_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999981136374682</v>
+        <v>0.9997447515496397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990338906703643</v>
+        <v>0.9989781572780164</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999930548769195</v>
+        <v>0.9999755826910955</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999888820834952</v>
+        <v>0.9999348988079211</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999919071840804</v>
+        <v>0.9999459670533783</v>
       </c>
       <c r="G23" t="n">
-        <v>1.760836621713265e-06</v>
+        <v>0.0002382632242992789</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009018206519165331</v>
+        <v>0.0009538453272601125</v>
       </c>
       <c r="I23" t="n">
-        <v>6.183031110401332e-06</v>
+        <v>5.838836305739444e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>3.782357662766654e-06</v>
+        <v>4.390128820683056e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>4.982694386583993e-06</v>
+        <v>2.4870062256285e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001206116047561747</v>
+        <v>0.001022631011052007</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001326965192351806</v>
+        <v>0.01543577741156171</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000045272700764</v>
+        <v>1.006125962808647</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001383456847786851</v>
+        <v>0.0160929104124361</v>
       </c>
       <c r="P23" t="n">
-        <v>76.4994430172252</v>
+        <v>66.68426902198456</v>
       </c>
       <c r="Q23" t="n">
-        <v>106.9713386389302</v>
+        <v>97.15616464368958</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999981360149874</v>
+        <v>0.9999804118332885</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990320268166953</v>
+        <v>0.9989772441658024</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999929286575611</v>
+        <v>0.9997569001136406</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999890210024054</v>
+        <v>0.9999480267183468</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999918543099671</v>
+        <v>0.9998987779328313</v>
       </c>
       <c r="G24" t="n">
-        <v>1.739948189757837e-06</v>
+        <v>1.828469380409586e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009035604775027799</v>
+        <v>0.0009546976774309447</v>
       </c>
       <c r="I24" t="n">
-        <v>6.295400352970161e-06</v>
+        <v>5.813173138561147e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.735096918889008e-06</v>
+        <v>3.504842145050251e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>5.015248635929584e-06</v>
+        <v>4.659007641805698e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000117899554634853</v>
+        <v>0.0003621508721283711</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001319070957059489</v>
+        <v>0.004276060547290679</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000044735640301</v>
+        <v>1.000470116001077</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001375226538554821</v>
+        <v>0.004458101297454452</v>
       </c>
       <c r="P24" t="n">
-        <v>76.52331044236479</v>
+        <v>71.81889250449156</v>
       </c>
       <c r="Q24" t="n">
-        <v>106.9952060640698</v>
+        <v>102.2907881261966</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999998153660236</v>
+        <v>0.9999807554074933</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990303687014007</v>
+        <v>0.9989727663470017</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999992822597477</v>
+        <v>0.9997500328812832</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999891334731783</v>
+        <v>0.9999474421571884</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999918087036169</v>
+        <v>0.9998965658445804</v>
       </c>
       <c r="G25" t="n">
-        <v>1.723477124730211e-06</v>
+        <v>1.796398236499862e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009051082553474929</v>
+        <v>0.0009588775247278383</v>
       </c>
       <c r="I25" t="n">
-        <v>6.389822408767728e-06</v>
+        <v>5.977387162985993e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.696833932359253e-06</v>
+        <v>3.544262295537539e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>5.04332817056349e-06</v>
+        <v>4.760824729261767e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001154163014597232</v>
+        <v>0.0003512330685607648</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001312812676938416</v>
+        <v>0.004238393842601064</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000044312154335</v>
+        <v>1.00046187022016</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001368701830492568</v>
+        <v>0.004418831043165373</v>
       </c>
       <c r="P25" t="n">
-        <v>76.54233344728979</v>
+        <v>71.85428356884987</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.0142290689948</v>
+        <v>102.3261791905549</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999981671643196</v>
+        <v>0.9999810121163076</v>
       </c>
       <c r="C26" t="n">
-        <v>0.999028852972471</v>
+        <v>0.99896868845694</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999927226834733</v>
+        <v>0.9997440332482335</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999892465912614</v>
+        <v>0.9999469562236308</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999917677196031</v>
+        <v>0.9998946513782029</v>
       </c>
       <c r="G26" t="n">
-        <v>1.710871655502687e-06</v>
+        <v>1.772435595509261e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009065231217705858</v>
+        <v>0.0009626840561017677</v>
       </c>
       <c r="I26" t="n">
-        <v>6.478772796916688e-06</v>
+        <v>6.120854550849229e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>3.658350728379532e-06</v>
+        <v>3.5770314484258e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>5.068561762648111e-06</v>
+        <v>4.848942999637514e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001131648821078</v>
+        <v>0.0003410666133664287</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001308002926412126</v>
+        <v>0.00421003039835731</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000043988056331</v>
+        <v>1.000455709208617</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001363687318928818</v>
+        <v>0.004389260108379737</v>
       </c>
       <c r="P26" t="n">
-        <v>76.55701515452597</v>
+        <v>71.88114164320595</v>
       </c>
       <c r="Q26" t="n">
-        <v>107.028910776231</v>
+        <v>102.353037264911</v>
       </c>
     </row>
   </sheetData>
